--- a/medicine/Maladies infectieuses/Grippe_A_(H1N1)_de_2009-2010_au_Maroc/Grippe_A_(H1N1)_de_2009-2010_au_Maroc.xlsx
+++ b/medicine/Maladies infectieuses/Grippe_A_(H1N1)_de_2009-2010_au_Maroc/Grippe_A_(H1N1)_de_2009-2010_au_Maroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Maroc a annoncé les deux premiers cas de contamination du virus A H1N1 le 12 juin 2009. Ils concernent une jeune fille et un jeune homme arrivés du Canada dans le même appareil, et dont l'état de santé est stable et évolue favorablement depuis leur hospitalisation respective au CHU de Fès et au centre hospitalier régional Moulay Youssef de Casa-Anfa à Casablanca.
 Entre le 24 octobre 2009 et le 29 octobre 2009, 145 élèves et étudiants ont été contaminés. Et 51 nouveaux cas enregistrés à Casablanca. Plusieurs établissements ont pris les précautions nécessaires.
@@ -513,7 +525,9 @@
           <t>Précautions prises face au virus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Maroc a mis à ses frontières des caméras thermiques afin d'éviter la propagation du virus, et des campagnes de sensibilisation aux dangers de virus H1N1 et à sa propagation auprès des élèves dans les écoles.
 Malgré tout, le virus s'est propagé, surtout dans les écoles, dans la majorité des villes du pays notamment Casablanca, Fès, Agadir, Meknès, Oujda et Rabat.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Vaccination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vaccin de la grippe A H1N1 a été disponible au Maroc à partir du mois d'octobre 2009, le ministère de la santé marocain a donné la priorité d'accès au vaccin aux personnes fragiles ou les plus exposées à la grippe, mais la compagne de vaccination n'a commencé qu'à partir du 9 décembre 2009 à la région de Casablanca, et le 10 décembre 2009 pour tout le royaume.
 Les personnes ayant eu la priorité de vaccination:
@@ -584,7 +602,7 @@
 Enseignants
 Professionnels de la santé
 Le 30 décembre 2009, le ministère de la santé ouvre la compagne de vaccination pour toute la population.
-Jusqu'à présent, le nombre total des vaccinés est 500 000 personnes[1].
+Jusqu'à présent, le nombre total des vaccinés est 500 000 personnes.
 </t>
         </is>
       </c>
